--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127143.4685328679</v>
+        <v>125439.1163961567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1374511.522853286</v>
+        <v>1374511.522853287</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20.32145357845319</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>207.1133235319909</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,73 +817,73 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>196.9826481283071</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.48349183745782</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>27.76135120560871</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="E8" t="n">
-        <v>60.78518453815428</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.32655725927287</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>171.0057867469176</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372056</v>
+        <v>362.3140662372057</v>
       </c>
       <c r="C11" t="n">
-        <v>186.0144520497604</v>
+        <v>344.8531163447327</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E11" t="n">
-        <v>361.5105946459868</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4562703154364</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437241</v>
+        <v>392.5197736437242</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8530230257432</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.94929161302584</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.749137466434</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192736</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059506</v>
+        <v>113.4566221686859</v>
       </c>
       <c r="V11" t="n">
-        <v>307.3324830438599</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X11" t="n">
-        <v>349.311325252194</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.8181632297786</v>
+        <v>365.8181632297787</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556623</v>
+        <v>156.170258678181</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723528</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.92753915230521</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>202.9965309021384</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948984</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>231.717867897553</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W13" t="n">
-        <v>266.103222910316</v>
+        <v>266.1032229103161</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.3140662372056</v>
+        <v>362.3140662372057</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447325</v>
+        <v>175.8699333675486</v>
       </c>
       <c r="D14" t="n">
-        <v>334.2632661944079</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E14" t="n">
-        <v>361.5105946459868</v>
+        <v>361.5105946459869</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154364</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>392.5197736437242</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8530230257432</v>
+        <v>294.8530230257434</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302572</v>
+        <v>98.94929161302588</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192736</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059506</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>307.3324830438599</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
-        <v>301.0358522375302</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>349.311325252194</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>365.8181632297787</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I15" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838227</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.65304841868482</v>
+        <v>21.65304841868485</v>
       </c>
       <c r="S15" t="n">
-        <v>148.1971745240615</v>
+        <v>148.1971745240616</v>
       </c>
       <c r="T15" t="n">
         <v>195.0682397085608</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966562</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244175</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.02947273325851</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267667</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
-        <v>231.717867897553</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W16" t="n">
-        <v>266.103222910316</v>
+        <v>266.1032229103161</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.5011871273787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T17" t="n">
         <v>130.9397223597039</v>
@@ -1941,7 +1941,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I18" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838227</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868485</v>
       </c>
       <c r="S18" t="n">
         <v>148.1971745240616</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.02071039609267</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C19" t="n">
-        <v>85.4355513127832</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236773</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072454</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179392</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484789</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697299095724526</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
@@ -2062,7 +2062,7 @@
         <v>170.3263735379834</v>
       </c>
       <c r="W19" t="n">
-        <v>204.7117285507464</v>
+        <v>59.21984332837349</v>
       </c>
       <c r="X19" t="n">
         <v>143.8983856031925</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686442</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T20" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U20" t="n">
         <v>169.345328046381</v>
@@ -2178,7 +2178,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I21" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838227</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868485</v>
       </c>
       <c r="S21" t="n">
         <v>148.1971745240616</v>
@@ -2251,13 +2251,13 @@
         <v>63.60977823708664</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179395</v>
+        <v>10.61891853426879</v>
       </c>
       <c r="H22" t="n">
-        <v>15.07866002348483</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2336,7 +2336,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686442</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T23" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U23" t="n">
         <v>169.345328046381</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609268</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278322</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236775</v>
+        <v>66.80420323236774</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072457</v>
+        <v>64.62269286072456</v>
       </c>
       <c r="F25" t="n">
-        <v>63.60977823708664</v>
+        <v>63.60977823708663</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179395</v>
+        <v>85.11966459179393</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484792</v>
+        <v>70.99113916484791</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462662</v>
+        <v>47.81864454462661</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
@@ -2533,7 +2533,7 @@
         <v>204.4499389353288</v>
       </c>
       <c r="V25" t="n">
-        <v>66.59524985199403</v>
+        <v>24.8344883156102</v>
       </c>
       <c r="W25" t="n">
         <v>204.7117285507464</v>
@@ -2713,7 +2713,7 @@
         <v>98.0207103960927</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278323</v>
+        <v>10.93480525525759</v>
       </c>
       <c r="D28" t="n">
         <v>66.80420323236775</v>
@@ -2725,13 +2725,13 @@
         <v>63.60977823708664</v>
       </c>
       <c r="G28" t="n">
-        <v>29.20718545043128</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484792</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
@@ -2792,25 +2792,25 @@
         <v>300.922571877636</v>
       </c>
       <c r="C29" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E29" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F29" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G29" t="n">
         <v>331.1282792841545</v>
       </c>
       <c r="H29" t="n">
-        <v>233.4615286661736</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345616</v>
+        <v>37.5577972534562</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686442</v>
+        <v>73.35764310686449</v>
       </c>
       <c r="T29" t="n">
         <v>130.939722359704</v>
       </c>
       <c r="U29" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V29" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W29" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X29" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y29" t="n">
         <v>304.426668870209</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236775</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072457</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708664</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>29.20718545042948</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484792</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462662</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>123.7316352671971</v>
@@ -3004,16 +3004,16 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U31" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V31" t="n">
-        <v>151.7149144437878</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W31" t="n">
         <v>204.7117285507464</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8983856031925</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y31" t="n">
         <v>136.7733835662502</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C32" t="n">
         <v>277.3589792373368</v>
@@ -3047,7 +3047,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450562999</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>67.25500035903826</v>
       </c>
       <c r="T32" t="n">
-        <v>124.8370796118778</v>
+        <v>212.7509921455486</v>
       </c>
       <c r="U32" t="n">
-        <v>163.2426852985548</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
-        <v>239.8383459364641</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W32" t="n">
-        <v>264.9527848674642</v>
+        <v>264.9527848674625</v>
       </c>
       <c r="X32" t="n">
         <v>281.8171881447983</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.3240261223828</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826653</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495707</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454159</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E34" t="n">
-        <v>58.5200501128984</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926048</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G34" t="n">
-        <v>79.01702184396778</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702176</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855762</v>
+        <v>35.65811878855763</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680046</v>
+        <v>41.71600179680047</v>
       </c>
       <c r="S34" t="n">
         <v>117.6289925193709</v>
@@ -3241,7 +3241,7 @@
         <v>135.5023937947425</v>
       </c>
       <c r="U34" t="n">
-        <v>198.3472961875026</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V34" t="n">
         <v>164.2237307901572</v>
@@ -3269,13 +3269,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E35" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G35" t="n">
         <v>325.0256365363284</v>
@@ -3284,7 +3284,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450563006</v>
+        <v>31.45515450563005</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W35" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837409</v>
       </c>
       <c r="X35" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y35" t="n">
         <v>298.3240261223829</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855769</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680053</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S37" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U37" t="n">
         <v>198.3472961875027</v>
@@ -3487,7 +3487,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y37" t="n">
         <v>130.6707408184241</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903826</v>
+        <v>67.25500035903821</v>
       </c>
       <c r="T38" t="n">
         <v>124.8370796118778</v>
@@ -3563,7 +3563,7 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W38" t="n">
-        <v>261.327056183744</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X38" t="n">
         <v>281.8171881447983</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563003</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>124.8370796118779</v>
       </c>
       <c r="U41" t="n">
-        <v>163.242685298556</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V41" t="n">
         <v>239.8383459364642</v>
@@ -3837,7 +3837,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I42" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S42" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T42" t="n">
         <v>195.0682397085608</v>
@@ -3916,7 +3916,7 @@
         <v>64.8884964170218</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855765</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680049</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C44" t="n">
         <v>277.3589792373368</v>
@@ -3983,19 +3983,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F44" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H44" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563005</v>
+        <v>31.45515450562998</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903832</v>
+        <v>67.25500035903823</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
-        <v>163.2426852985549</v>
+        <v>163.2426852985548</v>
       </c>
       <c r="V44" t="n">
-        <v>239.8383459364642</v>
+        <v>239.8383459364641</v>
       </c>
       <c r="W44" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X44" t="n">
         <v>281.8171881447983</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.3240261223829</v>
+        <v>298.3240261223828</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826651</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495705</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454164</v>
+        <v>60.70156048454157</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289839</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926046</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396777</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702174</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855718</v>
+        <v>35.65811878855759</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680052</v>
+        <v>41.71600179680045</v>
       </c>
       <c r="S46" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193729</v>
       </c>
       <c r="T46" t="n">
         <v>135.5023937947425</v>
       </c>
       <c r="U46" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875026</v>
       </c>
       <c r="V46" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W46" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X46" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D2" t="n">
         <v>285.1327311248648</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4361,19 +4361,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.0914794406409</v>
+        <v>567.6182002269572</v>
       </c>
       <c r="C3" t="n">
-        <v>372.6384501595139</v>
+        <v>393.1651709458303</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>244.230761284579</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>244.230761284579</v>
       </c>
       <c r="F3" t="n">
         <v>223.7040404982626</v>
@@ -4410,19 +4410,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>754.8517782055949</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X3" t="n">
-        <v>754.8517782055949</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.0914794406409</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4531,7 +4531,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>278.1872303756613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>278.1872303756613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1872303756613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4610,7 +4610,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>341.0228630172405</v>
+        <v>554.837743301797</v>
       </c>
       <c r="C6" t="n">
-        <v>166.5698337361135</v>
+        <v>554.837743301797</v>
       </c>
       <c r="D6" t="n">
-        <v>166.5698337361135</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,16 +4653,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>960.5384768869415</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>717.0897002428414</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>509.2382000373086</v>
+        <v>762.5980420667508</v>
       </c>
       <c r="Y6" t="n">
-        <v>509.2382000373086</v>
+        <v>554.837743301797</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>247.340362388537</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>486.248002141161</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>486.248002141161</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>327.0105471357055</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>327.0105471357055</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>188.279721718321</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>74.91058612590034</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>187.4964801302808</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W9" t="n">
-        <v>187.4964801302808</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4964801302808</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.199729919341</v>
+        <v>1944.069050582391</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.306344010492</v>
+        <v>1595.732569426096</v>
       </c>
       <c r="D11" t="n">
-        <v>1523.306344010492</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="E11" t="n">
-        <v>1158.144127196364</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="F11" t="n">
-        <v>767.7842581908729</v>
+        <v>867.73303759797</v>
       </c>
       <c r="G11" t="n">
-        <v>371.2996383487274</v>
+        <v>471.2484177558243</v>
       </c>
       <c r="H11" t="n">
-        <v>73.46830195908777</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J11" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L11" t="n">
-        <v>1210.096241442437</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M11" t="n">
         <v>1837.877529641655</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O11" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P11" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q11" t="n">
         <v>3673.415097954388</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089303</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.030901807209</v>
+        <v>3479.141141672293</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.963404427461</v>
+        <v>3364.538493017055</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868006</v>
+        <v>3364.538493017055</v>
       </c>
       <c r="W11" t="n">
-        <v>2799.526552868006</v>
+        <v>3032.395873531057</v>
       </c>
       <c r="X11" t="n">
-        <v>2446.686830391042</v>
+        <v>2679.556151054093</v>
       </c>
       <c r="Y11" t="n">
-        <v>2077.173534199347</v>
+        <v>2310.042854862397</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J12" t="n">
-        <v>190.9942848817977</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="K12" t="n">
-        <v>333.1371951879715</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L12" t="n">
-        <v>834.8942840728514</v>
+        <v>535.5849161864095</v>
       </c>
       <c r="M12" t="n">
-        <v>1472.400362088867</v>
+        <v>1173.090994202425</v>
       </c>
       <c r="N12" t="n">
         <v>1667.937391818767</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>221.7784491028785</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="C13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="D13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="E13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="F13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="G13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="H13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814366</v>
+        <v>75.45401965814355</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164736</v>
+        <v>195.5491741164733</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432038</v>
+        <v>399.1026573432034</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459857</v>
+        <v>623.0114736459852</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327551</v>
+        <v>847.5115364327547</v>
       </c>
       <c r="O13" t="n">
-        <v>1040.400604995802</v>
+        <v>1040.400604995801</v>
       </c>
       <c r="P13" t="n">
         <v>1184.847502163548</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.639325881399</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="R13" t="n">
-        <v>1154.177165121494</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="S13" t="n">
-        <v>1154.177165121494</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="T13" t="n">
-        <v>1154.177165121494</v>
+        <v>1002.592324970147</v>
       </c>
       <c r="U13" t="n">
-        <v>885.6504648236173</v>
+        <v>734.0656246722699</v>
       </c>
       <c r="V13" t="n">
-        <v>651.5920124018465</v>
+        <v>500.0071722504991</v>
       </c>
       <c r="W13" t="n">
-        <v>382.8008781490021</v>
+        <v>231.2160379976544</v>
       </c>
       <c r="X13" t="n">
-        <v>382.8008781490021</v>
+        <v>231.2160379976544</v>
       </c>
       <c r="Y13" t="n">
-        <v>382.8008781490021</v>
+        <v>231.2160379976544</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1912.746647554374</v>
+        <v>2138.541183581182</v>
       </c>
       <c r="C14" t="n">
-        <v>1564.410166398078</v>
+        <v>1960.894786240224</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.770503575444</v>
+        <v>1623.255123417589</v>
       </c>
       <c r="E14" t="n">
-        <v>861.6082867613155</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="F14" t="n">
-        <v>471.2484177558241</v>
+        <v>867.73303759797</v>
       </c>
       <c r="G14" t="n">
-        <v>471.2484177558241</v>
+        <v>471.2484177558243</v>
       </c>
       <c r="H14" t="n">
         <v>173.4170813661845</v>
@@ -5279,7 +5279,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L14" t="n">
         <v>1210.096241442436</v>
@@ -5291,37 +5291,37 @@
         <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P14" t="n">
         <v>3430.660101634155</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="S14" t="n">
-        <v>3673.415097954388</v>
+        <v>3537.304858089302</v>
       </c>
       <c r="T14" t="n">
-        <v>3479.141141672294</v>
+        <v>3537.304858089302</v>
       </c>
       <c r="U14" t="n">
-        <v>3246.073644292545</v>
+        <v>3537.304858089302</v>
       </c>
       <c r="V14" t="n">
-        <v>2935.636792733091</v>
+        <v>3226.868006529847</v>
       </c>
       <c r="W14" t="n">
-        <v>2631.560174311343</v>
+        <v>3226.868006529847</v>
       </c>
       <c r="X14" t="n">
-        <v>2278.720451834379</v>
+        <v>2874.028284052883</v>
       </c>
       <c r="Y14" t="n">
-        <v>2278.720451834379</v>
+        <v>2504.514987861188</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J15" t="n">
-        <v>73.46830195908775</v>
+        <v>187.5929092205771</v>
       </c>
       <c r="K15" t="n">
-        <v>225.7201864382779</v>
+        <v>515.0843764134435</v>
       </c>
       <c r="L15" t="n">
-        <v>360.3453334727333</v>
+        <v>1016.841465298323</v>
       </c>
       <c r="M15" t="n">
-        <v>997.8514114887491</v>
+        <v>1654.347543314339</v>
       </c>
       <c r="N15" t="n">
-        <v>1667.937391818767</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O15" t="n">
-        <v>2214.519473647356</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>333.4520455157277</v>
+        <v>200.7553597573648</v>
       </c>
       <c r="C16" t="n">
-        <v>333.4520455157277</v>
+        <v>200.7553597573648</v>
       </c>
       <c r="D16" t="n">
-        <v>333.4520455157277</v>
+        <v>200.7553597573648</v>
       </c>
       <c r="E16" t="n">
-        <v>333.4520455157277</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="F16" t="n">
-        <v>207.1881338019335</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="G16" t="n">
-        <v>207.1881338019335</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="H16" t="n">
         <v>73.46830195908775</v>
@@ -5434,52 +5434,52 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814364</v>
+        <v>75.45401965814352</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164736</v>
+        <v>195.5491741164733</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432038</v>
+        <v>399.1026573432034</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459852</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327551</v>
+        <v>847.5115364327547</v>
       </c>
       <c r="O16" t="n">
-        <v>1040.400604995802</v>
+        <v>1040.400604995801</v>
       </c>
       <c r="P16" t="n">
         <v>1184.847502163548</v>
       </c>
       <c r="Q16" t="n">
-        <v>1207.639325881399</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="R16" t="n">
-        <v>1207.639325881399</v>
+        <v>1159.124706958915</v>
       </c>
       <c r="S16" t="n">
-        <v>1020.646265652342</v>
+        <v>972.1316467298575</v>
       </c>
       <c r="T16" t="n">
-        <v>1020.646265652342</v>
+        <v>972.1316467298575</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.646265652342</v>
+        <v>703.6049464319801</v>
       </c>
       <c r="V16" t="n">
-        <v>786.5878132305709</v>
+        <v>469.5464940102094</v>
       </c>
       <c r="W16" t="n">
-        <v>517.7966789777264</v>
+        <v>200.7553597573648</v>
       </c>
       <c r="X16" t="n">
-        <v>517.7966789777264</v>
+        <v>200.7553597573648</v>
       </c>
       <c r="Y16" t="n">
-        <v>333.4520455157277</v>
+        <v>200.7553597573648</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>347.2251968274009</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I17" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J17" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075377</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M17" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N17" t="n">
         <v>2461.184977863254</v>
       </c>
       <c r="O17" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P17" t="n">
         <v>3430.660101634155</v>
       </c>
       <c r="Q17" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="S17" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T17" t="n">
         <v>3467.054122735632</v>
@@ -5595,19 +5595,19 @@
         <v>73.46830195908775</v>
       </c>
       <c r="K18" t="n">
-        <v>139.1391845095013</v>
+        <v>400.9597691519541</v>
       </c>
       <c r="L18" t="n">
-        <v>640.8962733943812</v>
+        <v>902.7168580368339</v>
       </c>
       <c r="M18" t="n">
-        <v>1278.402351410397</v>
+        <v>1472.400362088867</v>
       </c>
       <c r="N18" t="n">
-        <v>1948.488331740415</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O18" t="n">
-        <v>2495.070413569004</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P18" t="n">
         <v>2636.196714164933</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>450.2089596990045</v>
+        <v>556.6438483590755</v>
       </c>
       <c r="C19" t="n">
-        <v>363.9104230194255</v>
+        <v>470.3453116794964</v>
       </c>
       <c r="D19" t="n">
-        <v>296.4314298554177</v>
+        <v>402.8663185154886</v>
       </c>
       <c r="E19" t="n">
-        <v>231.1559825213523</v>
+        <v>337.5908711814234</v>
       </c>
       <c r="F19" t="n">
-        <v>231.1559825213523</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="G19" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H19" t="n">
-        <v>73.46830195908775</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
         <v>73.46830195908775</v>
@@ -5674,16 +5674,16 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N19" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O19" t="n">
         <v>1405.066081491645</v>
@@ -5695,28 +5695,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R19" t="n">
-        <v>1686.08491161755</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S19" t="n">
-        <v>1561.103461852704</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T19" t="n">
-        <v>1418.068071405665</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U19" t="n">
-        <v>1211.552981572</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V19" t="n">
-        <v>1039.506139614441</v>
+        <v>998.9795280498926</v>
       </c>
       <c r="W19" t="n">
-        <v>832.7266158258078</v>
+        <v>939.1615044858789</v>
       </c>
       <c r="X19" t="n">
-        <v>687.3747111761184</v>
+        <v>793.8095998361895</v>
       </c>
       <c r="Y19" t="n">
-        <v>549.2197782809162</v>
+        <v>655.6546669409873</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E20" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053341</v>
+        <v>681.6982062053347</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019725</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I20" t="n">
         <v>73.46830195908775</v>
@@ -5765,19 +5765,19 @@
         <v>2461.184977863254</v>
       </c>
       <c r="O20" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P20" t="n">
         <v>3430.660101634155</v>
       </c>
       <c r="Q20" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T20" t="n">
         <v>3467.054122735632</v>
@@ -5792,7 +5792,7 @@
         <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
         <v>2179.112187962831</v>
@@ -5829,22 +5829,22 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J21" t="n">
-        <v>190.9942848817977</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="K21" t="n">
-        <v>256.6651674322113</v>
+        <v>400.9597691519541</v>
       </c>
       <c r="L21" t="n">
-        <v>758.4222563170911</v>
+        <v>535.5849161864094</v>
       </c>
       <c r="M21" t="n">
-        <v>1395.928334333107</v>
+        <v>997.8514114887492</v>
       </c>
       <c r="N21" t="n">
-        <v>1983.215532772305</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O21" t="n">
-        <v>2529.797614600894</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P21" t="n">
         <v>2636.196714164933</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>457.9840092906445</v>
+        <v>409.6823481344561</v>
       </c>
       <c r="C22" t="n">
-        <v>371.6854726110655</v>
+        <v>323.3838114548771</v>
       </c>
       <c r="D22" t="n">
-        <v>304.2064794470576</v>
+        <v>255.9048182908693</v>
       </c>
       <c r="E22" t="n">
-        <v>238.9310321129923</v>
+        <v>190.6293709568041</v>
       </c>
       <c r="F22" t="n">
-        <v>174.6787308634098</v>
+        <v>126.3770697072216</v>
       </c>
       <c r="G22" t="n">
-        <v>88.6992716797795</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="H22" t="n">
-        <v>73.46830195908775</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I22" t="n">
         <v>73.46830195908775</v>
@@ -5911,7 +5911,7 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
         <v>581.4353955911254</v>
@@ -5932,28 +5932,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S22" t="n">
-        <v>1568.878511444344</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T22" t="n">
-        <v>1425.843120997305</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U22" t="n">
-        <v>1219.32803116364</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V22" t="n">
-        <v>1047.281189206081</v>
+        <v>998.9795280498925</v>
       </c>
       <c r="W22" t="n">
-        <v>840.501665417448</v>
+        <v>792.2000042612598</v>
       </c>
       <c r="X22" t="n">
-        <v>695.1497607677586</v>
+        <v>646.8480996115702</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.9948278725564</v>
+        <v>508.693166716368</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>681.6982062053337</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968273999</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H23" t="n">
         <v>111.4054709019728</v>
@@ -6014,7 +6014,7 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553514</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
         <v>3467.054122735632</v>
@@ -6066,25 +6066,25 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J24" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K24" t="n">
-        <v>400.9597691519541</v>
+        <v>256.6651674322113</v>
       </c>
       <c r="L24" t="n">
-        <v>902.7168580368339</v>
+        <v>613.4168317267427</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.22293605285</v>
+        <v>789.8748966302585</v>
       </c>
       <c r="N24" t="n">
-        <v>2210.308916382868</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.967302127494</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P24" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.402498082636</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.4612609485868</v>
+        <v>556.6438483590756</v>
       </c>
       <c r="C25" t="n">
-        <v>428.1627242690077</v>
+        <v>470.3453116794965</v>
       </c>
       <c r="D25" t="n">
-        <v>360.6837311049999</v>
+        <v>402.8663185154887</v>
       </c>
       <c r="E25" t="n">
-        <v>295.4082837709346</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F25" t="n">
-        <v>231.1559825213522</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G25" t="n">
-        <v>145.176523337722</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H25" t="n">
-        <v>73.46830195908775</v>
+        <v>115.6508893695766</v>
       </c>
       <c r="I25" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484215</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N25" t="n">
         <v>1151.399433512625</v>
@@ -6178,19 +6178,19 @@
         <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1171.026370007451</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V25" t="n">
-        <v>1103.758440864023</v>
+        <v>1145.941028274512</v>
       </c>
       <c r="W25" t="n">
-        <v>896.9789170753902</v>
+        <v>939.1615044858789</v>
       </c>
       <c r="X25" t="n">
-        <v>751.6270124257007</v>
+        <v>793.8095998361895</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.4720795304986</v>
+        <v>655.6546669409875</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147036</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454952</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.197071096532</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746613</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053355</v>
+        <v>681.6982062053337</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274006</v>
+        <v>347.2251968273999</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2054441404283</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
@@ -6251,25 +6251,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735631</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.998235820096</v>
+        <v>3295.998235820095</v>
       </c>
       <c r="V26" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724852</v>
       </c>
       <c r="W26" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703066</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.11218796283</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>73.46830195908775</v>
       </c>
       <c r="K27" t="n">
-        <v>400.9597691519541</v>
+        <v>173.8663855413913</v>
       </c>
       <c r="L27" t="n">
-        <v>902.7168580368339</v>
+        <v>675.6234744262711</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.22293605285</v>
+        <v>1313.129552442287</v>
       </c>
       <c r="N27" t="n">
-        <v>2210.308916382868</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O27" t="n">
         <v>2529.797614600894</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>457.9840092906448</v>
+        <v>409.6823481344558</v>
       </c>
       <c r="C28" t="n">
-        <v>371.6854726110658</v>
+        <v>398.6370903008623</v>
       </c>
       <c r="D28" t="n">
-        <v>304.206479447058</v>
+        <v>331.1580971368544</v>
       </c>
       <c r="E28" t="n">
-        <v>238.9310321129926</v>
+        <v>265.8826498027892</v>
       </c>
       <c r="F28" t="n">
-        <v>174.6787308634102</v>
+        <v>201.6303485532067</v>
       </c>
       <c r="G28" t="n">
-        <v>145.176523337722</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="H28" t="n">
-        <v>73.46830195908775</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I28" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L28" t="n">
         <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098814</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N28" t="n">
         <v>1151.399433512625</v>
@@ -6406,28 +6406,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R28" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S28" t="n">
-        <v>1568.878511444344</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T28" t="n">
-        <v>1425.843120997306</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U28" t="n">
-        <v>1219.32803116364</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V28" t="n">
-        <v>1047.281189206081</v>
+        <v>998.9795280498923</v>
       </c>
       <c r="W28" t="n">
-        <v>840.5016654174484</v>
+        <v>792.2000042612597</v>
       </c>
       <c r="X28" t="n">
-        <v>695.1497607677589</v>
+        <v>646.8480996115702</v>
       </c>
       <c r="Y28" t="n">
-        <v>556.9948278725567</v>
+        <v>508.6931667163676</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053341</v>
+        <v>681.6982062053343</v>
       </c>
       <c r="G29" t="n">
         <v>347.2251968274004</v>
@@ -6461,28 +6461,28 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J29" t="n">
-        <v>260.2054441404283</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K29" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L29" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M29" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N29" t="n">
-        <v>2461.184977863253</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O29" t="n">
-        <v>3004.568888469953</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P29" t="n">
-        <v>3430.660101634154</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q29" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R29" t="n">
         <v>3673.415097954388</v>
@@ -6503,7 +6503,7 @@
         <v>2777.441985703067</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y29" t="n">
         <v>2179.112187962831</v>
@@ -6540,22 +6540,22 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J30" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K30" t="n">
-        <v>139.1391845095013</v>
+        <v>256.6651674322113</v>
       </c>
       <c r="L30" t="n">
-        <v>640.8962733943812</v>
+        <v>391.2903144666666</v>
       </c>
       <c r="M30" t="n">
-        <v>1278.402351410397</v>
+        <v>1028.796392482682</v>
       </c>
       <c r="N30" t="n">
-        <v>1948.488331740415</v>
+        <v>1698.8823728127</v>
       </c>
       <c r="O30" t="n">
-        <v>2495.070413569004</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P30" t="n">
         <v>2636.196714164933</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.4818017649565</v>
+        <v>457.9840092906434</v>
       </c>
       <c r="C31" t="n">
-        <v>342.1832650853775</v>
+        <v>371.6854726110643</v>
       </c>
       <c r="D31" t="n">
-        <v>274.7042719213696</v>
+        <v>304.2064794470564</v>
       </c>
       <c r="E31" t="n">
-        <v>209.4288245873044</v>
+        <v>238.9310321129911</v>
       </c>
       <c r="F31" t="n">
-        <v>145.176523337722</v>
+        <v>174.6787308634086</v>
       </c>
       <c r="G31" t="n">
-        <v>145.176523337722</v>
+        <v>145.1765233377221</v>
       </c>
       <c r="H31" t="n">
         <v>73.46830195908775</v>
@@ -6622,49 +6622,49 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911251</v>
       </c>
       <c r="M31" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098808</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O31" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P31" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q31" t="n">
-        <v>1693.85996120919</v>
+        <v>1693.859961209189</v>
       </c>
       <c r="R31" t="n">
-        <v>1645.558300053002</v>
+        <v>1693.859961209189</v>
       </c>
       <c r="S31" t="n">
-        <v>1520.576850288156</v>
+        <v>1568.878511444344</v>
       </c>
       <c r="T31" t="n">
-        <v>1377.541459841117</v>
+        <v>1425.843120997305</v>
       </c>
       <c r="U31" t="n">
-        <v>1171.026370007451</v>
+        <v>1219.328031163639</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.778981680393</v>
+        <v>1047.28118920608</v>
       </c>
       <c r="W31" t="n">
-        <v>810.9994578917601</v>
+        <v>840.5016654174472</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6475532420706</v>
+        <v>695.1497607677576</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.4926203468683</v>
+        <v>556.9948278725552</v>
       </c>
     </row>
     <row r="32">
@@ -6695,55 +6695,55 @@
         <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908774</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075381</v>
+        <v>660.8208179075377</v>
       </c>
       <c r="L32" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M32" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N32" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O32" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P32" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634154</v>
       </c>
       <c r="Q32" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="R32" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954387</v>
       </c>
       <c r="S32" t="n">
-        <v>3605.48075415738</v>
+        <v>3605.480754157379</v>
       </c>
       <c r="T32" t="n">
-        <v>3479.382693943362</v>
+        <v>3390.580762091168</v>
       </c>
       <c r="U32" t="n">
-        <v>3314.49109263169</v>
+        <v>3225.689160779496</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.230137140312</v>
+        <v>2983.428205288118</v>
       </c>
       <c r="W32" t="n">
-        <v>2804.601061516611</v>
+        <v>2715.799129664419</v>
       </c>
       <c r="X32" t="n">
-        <v>2519.937235107724</v>
+        <v>2431.135303255532</v>
       </c>
       <c r="Y32" t="n">
-        <v>2218.599834984105</v>
+        <v>2129.797903131912</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I33" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908774</v>
       </c>
       <c r="J33" t="n">
-        <v>73.46830195908775</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K33" t="n">
-        <v>139.1391845095013</v>
+        <v>256.6651674322113</v>
       </c>
       <c r="L33" t="n">
-        <v>640.8962733943812</v>
+        <v>758.4222563170911</v>
       </c>
       <c r="M33" t="n">
-        <v>1278.402351410397</v>
+        <v>1395.928334333107</v>
       </c>
       <c r="N33" t="n">
-        <v>1667.937391818767</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O33" t="n">
-        <v>2214.519473647356</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P33" t="n">
         <v>2636.196714164933</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320223</v>
+        <v>513.4938491320219</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563081</v>
+        <v>433.3595980563077</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961651</v>
+        <v>372.0448904961646</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659647</v>
+        <v>312.9337287659642</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202471</v>
+        <v>254.8457131202465</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404812</v>
+        <v>175.0305395404811</v>
       </c>
       <c r="H34" t="n">
         <v>109.4866037657116</v>
       </c>
       <c r="I34" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908774</v>
       </c>
       <c r="J34" t="n">
         <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.187565589117</v>
+        <v>329.1875655891171</v>
       </c>
       <c r="L34" t="n">
-        <v>599.560244552169</v>
+        <v>599.5602445521693</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912728</v>
+        <v>890.288256591273</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
@@ -6889,19 +6889,19 @@
         <v>1444.367247215494</v>
       </c>
       <c r="U34" t="n">
-        <v>1244.016442985694</v>
+        <v>1244.016442985693</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886632</v>
+        <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472316</v>
+        <v>877.518648447231</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014068</v>
+        <v>738.3310294014063</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100693</v>
+        <v>606.3403821100688</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6920,19 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E35" t="n">
-        <v>983.5022961258906</v>
+        <v>983.5022961258903</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884758</v>
+        <v>661.3183231884755</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144067</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H35" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J35" t="n">
         <v>258.3184179351636</v>
@@ -6944,34 +6944,34 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M35" t="n">
-        <v>1743.526219378419</v>
+        <v>1743.526219378417</v>
       </c>
       <c r="N35" t="n">
-        <v>2366.833667600018</v>
+        <v>2366.833667600016</v>
       </c>
       <c r="O35" t="n">
-        <v>2910.217578206718</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P35" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370918</v>
       </c>
       <c r="Q35" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R35" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S35" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894142</v>
       </c>
       <c r="T35" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680124</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368452</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W35" t="n">
         <v>2713.912103459154</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.554770538689</v>
+        <v>985.5547705386888</v>
       </c>
       <c r="C36" t="n">
-        <v>811.101741257562</v>
+        <v>811.1017412575618</v>
       </c>
       <c r="D36" t="n">
-        <v>662.1673315963108</v>
+        <v>662.1673315963105</v>
       </c>
       <c r="E36" t="n">
-        <v>502.9298765908552</v>
+        <v>502.9298765908551</v>
       </c>
       <c r="F36" t="n">
         <v>356.3953186177401</v>
@@ -7008,25 +7008,25 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H36" t="n">
-        <v>117.9075054592597</v>
+        <v>117.9075054592596</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J36" t="n">
-        <v>97.55939039726962</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="K36" t="n">
-        <v>425.050857590136</v>
+        <v>399.0727429466893</v>
       </c>
       <c r="L36" t="n">
-        <v>926.8079464750158</v>
+        <v>900.8298318315692</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.266011378532</v>
+        <v>1538.335909847585</v>
       </c>
       <c r="N36" t="n">
-        <v>1773.35199170855</v>
+        <v>2163.275687792512</v>
       </c>
       <c r="O36" t="n">
         <v>2319.934073537138</v>
@@ -7053,7 +7053,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.381906529244</v>
+        <v>1569.381906529243</v>
       </c>
       <c r="X36" t="n">
         <v>1361.530406323711</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267574</v>
+        <v>511.6068229267571</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510431</v>
+        <v>431.4725718510428</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909</v>
+        <v>370.1578642908997</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606995</v>
+        <v>311.0467025606993</v>
       </c>
       <c r="F37" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149815</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352165</v>
+        <v>173.143513335216</v>
       </c>
       <c r="H37" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892006</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469045</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860079</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N37" t="n">
         <v>1179.720488909099</v>
@@ -7117,10 +7117,10 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
         <v>1442.480221010229</v>
@@ -7129,16 +7129,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419667</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961419</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048044</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884753</v>
       </c>
       <c r="G38" t="n">
         <v>333.0095994144064</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J38" t="n">
         <v>258.3184179351636</v>
@@ -7184,31 +7184,31 @@
         <v>1835.99050343639</v>
       </c>
       <c r="N38" t="n">
-        <v>2366.833667600019</v>
+        <v>2366.833667600016</v>
       </c>
       <c r="O38" t="n">
-        <v>2910.217578206719</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P38" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370918</v>
       </c>
       <c r="Q38" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R38" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S38" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894142</v>
       </c>
       <c r="T38" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680124</v>
       </c>
       <c r="U38" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W38" t="n">
         <v>2713.912103459154</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>985.554770538689</v>
+        <v>985.5547705386888</v>
       </c>
       <c r="C39" t="n">
-        <v>811.101741257562</v>
+        <v>811.1017412575618</v>
       </c>
       <c r="D39" t="n">
-        <v>662.1673315963108</v>
+        <v>662.1673315963105</v>
       </c>
       <c r="E39" t="n">
-        <v>502.9298765908552</v>
+        <v>502.9298765908551</v>
       </c>
       <c r="F39" t="n">
         <v>356.3953186177401</v>
@@ -7245,28 +7245,28 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H39" t="n">
-        <v>117.9075054592597</v>
+        <v>117.9075054592596</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J39" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="K39" t="n">
-        <v>137.2521583042367</v>
+        <v>246.6249144665509</v>
       </c>
       <c r="L39" t="n">
-        <v>639.0092471891164</v>
+        <v>748.3820033514307</v>
       </c>
       <c r="M39" t="n">
-        <v>1276.515325205132</v>
+        <v>1385.888081367447</v>
       </c>
       <c r="N39" t="n">
-        <v>1946.60130553515</v>
+        <v>2055.974061697465</v>
       </c>
       <c r="O39" t="n">
-        <v>2493.183387363739</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P39" t="n">
         <v>2634.309687959668</v>
@@ -7290,7 +7290,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W39" t="n">
-        <v>1569.381906529244</v>
+        <v>1569.381906529243</v>
       </c>
       <c r="X39" t="n">
         <v>1361.530406323711</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267573</v>
+        <v>511.6068229267572</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510431</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642909001</v>
+        <v>370.1578642908999</v>
       </c>
       <c r="E40" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F40" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H40" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892002</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K40" t="n">
-        <v>327.300539383852</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469039</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M40" t="n">
-        <v>888.4012303860077</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N40" t="n">
         <v>1179.720488909099</v>
       </c>
       <c r="O40" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P40" t="n">
         <v>1650.694846112536</v>
@@ -7354,28 +7354,28 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R40" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S40" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U40" t="n">
-        <v>1242.129416780429</v>
+        <v>1242.129416780428</v>
       </c>
       <c r="V40" t="n">
         <v>1076.246860426734</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419664</v>
+        <v>875.6316222419658</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961417</v>
+        <v>736.4440031961412</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048043</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.112968714719</v>
+        <v>1830.112968714718</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.9523836265</v>
+        <v>1549.952383626499</v>
       </c>
       <c r="D41" t="n">
         <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258899</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884749</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144065</v>
+        <v>333.0095994144058</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J41" t="n">
-        <v>165.8541338771937</v>
+        <v>258.3184179351636</v>
       </c>
       <c r="K41" t="n">
-        <v>566.4695076443032</v>
+        <v>658.9337917022731</v>
       </c>
       <c r="L41" t="n">
-        <v>1115.744931179201</v>
+        <v>1208.209215237171</v>
       </c>
       <c r="M41" t="n">
-        <v>1743.52621937842</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N41" t="n">
-        <v>2366.833667600019</v>
+        <v>2459.297951657989</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.217578206719</v>
+        <v>3002.681862264689</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.30879137092</v>
+        <v>3428.77307542889</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R41" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S41" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894142</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680124</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W41" t="n">
         <v>2713.912103459154</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>985.554770538689</v>
+        <v>985.5547705386888</v>
       </c>
       <c r="C42" t="n">
-        <v>811.101741257562</v>
+        <v>811.1017412575618</v>
       </c>
       <c r="D42" t="n">
-        <v>662.1673315963108</v>
+        <v>662.1673315963105</v>
       </c>
       <c r="E42" t="n">
-        <v>502.9298765908552</v>
+        <v>502.9298765908551</v>
       </c>
       <c r="F42" t="n">
         <v>356.3953186177401</v>
@@ -7482,22 +7482,22 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H42" t="n">
-        <v>117.9075054592597</v>
+        <v>117.9075054592596</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J42" t="n">
-        <v>71.58127575382306</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K42" t="n">
-        <v>399.0727429466895</v>
+        <v>438.551795077754</v>
       </c>
       <c r="L42" t="n">
-        <v>900.8298318315692</v>
+        <v>940.3088839626339</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.266011378532</v>
+        <v>1577.81496197865</v>
       </c>
       <c r="N42" t="n">
         <v>1773.35199170855</v>
@@ -7527,7 +7527,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W42" t="n">
-        <v>1569.381906529244</v>
+        <v>1569.381906529243</v>
       </c>
       <c r="X42" t="n">
         <v>1361.530406323711</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267575</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510433</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F43" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H43" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469042</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860077</v>
+        <v>888.4012303860079</v>
       </c>
       <c r="N43" t="n">
         <v>1179.720488909099</v>
       </c>
       <c r="O43" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P43" t="n">
         <v>1650.694846112536</v>
@@ -7606,13 +7606,13 @@
         <v>1076.246860426734</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419665</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961419</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048045</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.502296125891</v>
+        <v>983.5022961258902</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884761</v>
+        <v>661.3183231884755</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144065</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J44" t="n">
-        <v>258.3184179351636</v>
+        <v>165.854133877191</v>
       </c>
       <c r="K44" t="n">
-        <v>658.9337917022731</v>
+        <v>566.4695076443005</v>
       </c>
       <c r="L44" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.744931179198</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378417</v>
       </c>
       <c r="N44" t="n">
-        <v>2366.833667600019</v>
+        <v>2366.833667600016</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206719</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370918</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S44" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894142</v>
       </c>
       <c r="T44" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680124</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W44" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>985.554770538689</v>
+        <v>985.5547705386888</v>
       </c>
       <c r="C45" t="n">
-        <v>811.101741257562</v>
+        <v>811.1017412575618</v>
       </c>
       <c r="D45" t="n">
-        <v>662.1673315963108</v>
+        <v>662.1673315963105</v>
       </c>
       <c r="E45" t="n">
-        <v>502.9298765908552</v>
+        <v>502.9298765908551</v>
       </c>
       <c r="F45" t="n">
         <v>356.3953186177401</v>
@@ -7719,31 +7719,31 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H45" t="n">
-        <v>117.9075054592597</v>
+        <v>117.9075054592596</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J45" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="K45" t="n">
-        <v>137.2521583042367</v>
+        <v>331.250168982707</v>
       </c>
       <c r="L45" t="n">
-        <v>271.8773053386919</v>
+        <v>833.0072578675868</v>
       </c>
       <c r="M45" t="n">
-        <v>787.9878704249938</v>
+        <v>1470.513335883603</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.073850755012</v>
+        <v>1666.050365613502</v>
       </c>
       <c r="O45" t="n">
-        <v>2004.655932583601</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7764,7 +7764,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W45" t="n">
-        <v>1569.381906529244</v>
+        <v>1569.381906529243</v>
       </c>
       <c r="X45" t="n">
         <v>1361.530406323711</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.606822926757</v>
+        <v>511.6068229267569</v>
       </c>
       <c r="C46" t="n">
         <v>431.4725718510427</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642908996</v>
+        <v>370.1578642908997</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606991</v>
+        <v>311.0467025606993</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149815</v>
+        <v>252.9586869149817</v>
       </c>
       <c r="G46" t="n">
-        <v>173.143513335216</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5995775604465</v>
+        <v>107.5995775604468</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J46" t="n">
         <v>140.3861891892006</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M46" t="n">
-        <v>888.401230386008</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N46" t="n">
         <v>1179.720488909099</v>
@@ -7822,34 +7822,34 @@
         <v>1439.428753208468</v>
       </c>
       <c r="P46" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q46" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R46" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014386</v>
       </c>
       <c r="S46" t="n">
-        <v>1579.351325853404</v>
+        <v>1579.351325853403</v>
       </c>
       <c r="T46" t="n">
         <v>1442.480221010229</v>
       </c>
       <c r="U46" t="n">
-        <v>1242.129416780429</v>
+        <v>1242.129416780428</v>
       </c>
       <c r="V46" t="n">
         <v>1076.246860426734</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419662</v>
+        <v>875.6316222419661</v>
       </c>
       <c r="X46" t="n">
         <v>736.4440031961415</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048041</v>
+        <v>604.453355904804</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K12" t="n">
-        <v>77.24447248056583</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>302.3326948347897</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.377921277065411</v>
+        <v>122.6553023492769</v>
       </c>
       <c r="K15" t="n">
-        <v>87.45555750381473</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119845</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.37792127706544</v>
+        <v>7.377921277065454</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>397.1974132813309</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>35.07798084029278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065454</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>288.6953842412365</v>
       </c>
       <c r="N21" t="n">
-        <v>395.7072411205031</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>7.37792127706544</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>224.3702194546223</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>164.4750631044439</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>7.37792127706544</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>35.07798084029284</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>164.4750631044438</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>7.37792127706544</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>362.6047627172009</v>
       </c>
       <c r="P30" t="n">
-        <v>35.07798084029278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>7.37792127706544</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>195.9575865439094</v>
+        <v>395.7072411205031</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>356.1152667676095</v>
+        <v>356.1152667676076</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>33.61844111893066</v>
+        <v>7.37792127706544</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>433.7401497121483</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>343.9486576867623</v>
+        <v>343.9486576867594</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,7 +10902,7 @@
         <v>7.37792127706544</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>110.4775314770852</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>35.07798084029324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>75.69834844685168</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>118.9167239346802</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>7.37792127706544</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>185.629953384654</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>26.24051984186522</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684898</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>343.9486576867623</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,16 +11376,16 @@
         <v>7.37792127706544</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>195.9575865439094</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>343.0833335179657</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>158.8386642949722</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944079</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>361.5105946459869</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302572</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>117.2802002372648</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W11" t="n">
-        <v>328.821193291138</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.241946077481373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919373</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202942</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966562</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513636</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3826335244175</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959534</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.282599751891</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267667</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021383</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627621</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258198</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>168.9831829771841</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437241</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.749137466434</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>27.78534105360785</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.8181632297786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556623</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C16" t="n">
-        <v>146.8270456723528</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919373</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202942</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513635</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959534</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041962</v>
+        <v>61.18066617093785</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.9965309021383</v>
+        <v>202.9965309021384</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8414332948984</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627621</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.66369079844111</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708662</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638375</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.12134544890208</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>145.4918852223729</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>74.50074605752513</v>
       </c>
       <c r="H22" t="n">
-        <v>55.91247914136329</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638378</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462662</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638378</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>103.7311236859894</v>
+        <v>145.4918852223732</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>74.50074605752565</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.91247914136267</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638378</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462662</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179395</v>
+        <v>55.91247914136488</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638378</v>
+        <v>41.76076153638383</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.81864454462668</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.61145909419561</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979862.4623589984</v>
+        <v>979862.4623589983</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979862.4623589985</v>
+        <v>979862.462358998</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="E2" t="n">
+        <v>301376.6732952672</v>
+      </c>
+      <c r="F2" t="n">
         <v>301376.6732952673</v>
       </c>
-      <c r="F2" t="n">
-        <v>301376.6732952671</v>
-      </c>
       <c r="G2" t="n">
-        <v>347458.7349630525</v>
+        <v>347458.7349630526</v>
       </c>
       <c r="H2" t="n">
-        <v>347458.7349630525</v>
+        <v>347458.7349630526</v>
       </c>
       <c r="I2" t="n">
-        <v>347458.7349630526</v>
+        <v>347458.7349630524</v>
       </c>
       <c r="J2" t="n">
         <v>347458.7349630525</v>
       </c>
       <c r="K2" t="n">
-        <v>347458.7349630526</v>
+        <v>347458.7349630524</v>
       </c>
       <c r="L2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="M2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="O2" t="n">
         <v>348942.7521923203</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>348942.7521923204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>348942.7521923205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923202</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.4200146751</v>
+        <v>690849.420014675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.1954876557</v>
+        <v>49113.19548765576</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012625</v>
+        <v>79395.76294012614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591664</v>
+        <v>53995.30968591673</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914783</v>
+        <v>162917.5281914782</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101997</v>
+        <v>16335.82034101989</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>61611.64298341477</v>
+        <v>61611.64298341467</v>
       </c>
       <c r="F4" t="n">
-        <v>61611.64298341477</v>
+        <v>61611.64298341468</v>
       </c>
       <c r="G4" t="n">
         <v>123650.5550834489</v>
@@ -26445,13 +26445,13 @@
         <v>123650.5550834489</v>
       </c>
       <c r="L4" t="n">
-        <v>125658.6286759028</v>
+        <v>125658.6286759029</v>
       </c>
       <c r="M4" t="n">
-        <v>128877.0901089102</v>
+        <v>128877.0901089103</v>
       </c>
       <c r="N4" t="n">
-        <v>128877.0901089102</v>
+        <v>128877.0901089103</v>
       </c>
       <c r="O4" t="n">
         <v>128877.0901089102</v>
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70367.55973007939</v>
+        <v>70367.55973007937</v>
       </c>
       <c r="F5" t="n">
-        <v>70367.55973007937</v>
+        <v>70367.55973007936</v>
       </c>
       <c r="G5" t="n">
         <v>75528.68126939403</v>
@@ -26497,19 +26497,19 @@
         <v>75528.68126939403</v>
       </c>
       <c r="L5" t="n">
-        <v>76041.72434256104</v>
+        <v>76041.72434256102</v>
       </c>
       <c r="M5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655983</v>
       </c>
       <c r="N5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655983</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655983</v>
       </c>
       <c r="P5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655983</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101070.9010933445</v>
+        <v>-101070.9010933446</v>
       </c>
       <c r="C6" t="n">
         <v>-20301.4695617968</v>
       </c>
       <c r="D6" t="n">
-        <v>-20301.46956179674</v>
+        <v>-20301.46956179663</v>
       </c>
       <c r="E6" t="n">
-        <v>-521451.9494329019</v>
+        <v>-521731.7498970021</v>
       </c>
       <c r="F6" t="n">
-        <v>169397.470581773</v>
+        <v>169117.6701176731</v>
       </c>
       <c r="G6" t="n">
-        <v>99166.30312255383</v>
+        <v>99157.57360944057</v>
       </c>
       <c r="H6" t="n">
-        <v>148279.4986102096</v>
+        <v>148270.7690970964</v>
       </c>
       <c r="I6" t="n">
-        <v>148279.4986102096</v>
+        <v>148270.7690970961</v>
       </c>
       <c r="J6" t="n">
-        <v>68883.73567008335</v>
+        <v>68875.00615697012</v>
       </c>
       <c r="K6" t="n">
-        <v>148279.4986102096</v>
+        <v>148270.7690970963</v>
       </c>
       <c r="L6" t="n">
-        <v>93247.08948794004</v>
+        <v>93247.08948793977</v>
       </c>
       <c r="M6" t="n">
-        <v>-17459.45053462806</v>
+        <v>-17459.4505346278</v>
       </c>
       <c r="N6" t="n">
+        <v>145458.0776568504</v>
+      </c>
+      <c r="O6" t="n">
+        <v>129122.2573158304</v>
+      </c>
+      <c r="P6" t="n">
         <v>145458.0776568503</v>
-      </c>
-      <c r="O6" t="n">
-        <v>129122.2573158305</v>
-      </c>
-      <c r="P6" t="n">
-        <v>145458.0776568501</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F2" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G2" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H2" t="n">
         <v>81.8112697858446</v>
       </c>
       <c r="I2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="J2" t="n">
         <v>81.8112697858446</v>
       </c>
       <c r="K2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L2" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N2" t="n">
         <v>87.91391253367075</v>
@@ -26725,7 +26725,7 @@
         <v>87.91391253367073</v>
       </c>
       <c r="P2" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
     </row>
     <row r="3">
@@ -26747,13 +26747,13 @@
         <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
-        <v>587.8431257275769</v>
+        <v>587.8431257275766</v>
       </c>
       <c r="G3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275766</v>
       </c>
       <c r="H3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275766</v>
       </c>
       <c r="I3" t="n">
         <v>587.8431257275768</v>
@@ -26774,7 +26774,7 @@
         <v>587.8431257275768</v>
       </c>
       <c r="O3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="P3" t="n">
         <v>587.8431257275768</v>
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>918.3537744885971</v>
+        <v>918.353774488597</v>
       </c>
       <c r="F4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885969</v>
       </c>
       <c r="G4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885969</v>
       </c>
       <c r="H4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885969</v>
       </c>
       <c r="I4" t="n">
         <v>918.353774488597</v>
@@ -26817,19 +26817,19 @@
         <v>918.353774488597</v>
       </c>
       <c r="L4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885967</v>
       </c>
       <c r="M4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.7659469227876</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.7659469227876</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.7659469227876</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.7659469227876</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956963</v>
+        <v>61.39149435956971</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.419775426275</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.4941371073958</v>
+        <v>67.49413710739591</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.339485610938</v>
+        <v>677.3394856109379</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451291</v>
+        <v>653.7516580451287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956963</v>
+        <v>61.39149435956971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.419775426275</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.339485610938</v>
+        <v>677.3394856109379</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>164.5764392340873</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27433,16 +27433,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>137.6456560835393</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>124.7477588149307</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>44.58165962892869</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>168.2902436427005</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,16 +27752,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>229.3170953119674</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>178.0116339978688</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,25 +27856,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463981</v>
       </c>
       <c r="E8" t="n">
-        <v>321.1451855341075</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>35.0700755921422</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>61.79480040250769</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>205.9115976555972</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="K13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="L13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="M13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="N13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="O13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="P13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="R13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="S13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.422481774376195</v>
+        <v>1.422481774376251</v>
       </c>
       <c r="S14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="K16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="L16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="M16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="N16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="O16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="P16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="R16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="S16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.419775426275</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376251</v>
       </c>
       <c r="S17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.81126978584463</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376251</v>
       </c>
       <c r="S20" t="n">
         <v>81.8112697858446</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="C23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="D23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="E23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="F23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="G23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="H23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="I23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="T23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="U23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="V23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="W23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="X23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="C25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="D25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="E25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="F25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="G25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="H25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="I25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="J25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="K25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="L25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="M25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="N25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="O25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="P25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="R25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="S25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="T25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="U25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="V25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="W25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="X25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584462</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.422481774377123</v>
+        <v>1.422481774376223</v>
       </c>
       <c r="S29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367077</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W32" t="n">
-        <v>84.28818384994878</v>
+        <v>84.28818384995054</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367077</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367215</v>
       </c>
       <c r="X35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367081</v>
       </c>
       <c r="T38" t="n">
         <v>87.91391253367075</v>
@@ -30283,7 +30283,7 @@
         <v>87.91391253367075</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253366896</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X38" t="n">
         <v>87.91391253367075</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S41" t="n">
         <v>87.91391253367073</v>
@@ -30514,7 +30514,7 @@
         <v>87.91391253367073</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253366965</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V41" t="n">
         <v>87.91391253367073</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="T44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367078</v>
       </c>
     </row>
   </sheetData>
@@ -31990,40 +31990,40 @@
         <v>2.363188445135985</v>
       </c>
       <c r="H14" t="n">
-        <v>24.20200366374892</v>
+        <v>24.20200366374891</v>
       </c>
       <c r="I14" t="n">
-        <v>91.10682253110518</v>
+        <v>91.10682253110514</v>
       </c>
       <c r="J14" t="n">
         <v>200.5726652953605</v>
       </c>
       <c r="K14" t="n">
-        <v>300.6064321779669</v>
+        <v>300.6064321779668</v>
       </c>
       <c r="L14" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557973</v>
       </c>
       <c r="M14" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669843</v>
       </c>
       <c r="N14" t="n">
-        <v>421.6696222367271</v>
+        <v>421.6696222367269</v>
       </c>
       <c r="O14" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354059</v>
       </c>
       <c r="P14" t="n">
-        <v>339.8294523961114</v>
+        <v>339.8294523961113</v>
       </c>
       <c r="Q14" t="n">
-        <v>255.1977662046789</v>
+        <v>255.1977662046787</v>
       </c>
       <c r="R14" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667734</v>
       </c>
       <c r="S14" t="n">
-        <v>53.85115669353632</v>
+        <v>53.8511566935363</v>
       </c>
       <c r="T14" t="n">
         <v>10.34485741858278</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300825</v>
       </c>
       <c r="H15" t="n">
-        <v>12.21160908351061</v>
+        <v>12.2116090835106</v>
       </c>
       <c r="I15" t="n">
-        <v>43.53366544303282</v>
+        <v>43.5336654430328</v>
       </c>
       <c r="J15" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896012</v>
       </c>
       <c r="K15" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727565</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5393767843745</v>
+        <v>274.5393767843744</v>
       </c>
       <c r="M15" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215292</v>
       </c>
       <c r="N15" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256563</v>
       </c>
       <c r="O15" t="n">
-        <v>300.8370381258855</v>
+        <v>300.8370381258854</v>
       </c>
       <c r="P15" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578041</v>
       </c>
       <c r="Q15" t="n">
         <v>161.4017578412773</v>
       </c>
       <c r="R15" t="n">
-        <v>78.50478573395831</v>
+        <v>78.50478573395829</v>
       </c>
       <c r="S15" t="n">
-        <v>23.48599657977629</v>
+        <v>23.48599657977628</v>
       </c>
       <c r="T15" t="n">
-        <v>5.096488986260782</v>
+        <v>5.096488986260781</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08318534798031751</v>
+        <v>0.08318534798031749</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H16" t="n">
-        <v>9.424763556747058</v>
+        <v>9.424763556747054</v>
       </c>
       <c r="I16" t="n">
-        <v>31.87844360502991</v>
+        <v>31.8784436050299</v>
       </c>
       <c r="J16" t="n">
-        <v>74.94518014398959</v>
+        <v>74.94518014398956</v>
       </c>
       <c r="K16" t="n">
-        <v>123.1579532262038</v>
+        <v>123.1579532262037</v>
       </c>
       <c r="L16" t="n">
-        <v>157.5997783303081</v>
+        <v>157.599778330308</v>
       </c>
       <c r="M16" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298459</v>
       </c>
       <c r="N16" t="n">
-        <v>162.2157923831526</v>
+        <v>162.2157923831525</v>
       </c>
       <c r="O16" t="n">
-        <v>149.8325396526618</v>
+        <v>149.8325396526617</v>
       </c>
       <c r="P16" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.76431198486411</v>
+        <v>88.76431198486407</v>
       </c>
       <c r="R16" t="n">
-        <v>47.66347704669827</v>
+        <v>47.66347704669825</v>
       </c>
       <c r="S16" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393055</v>
       </c>
       <c r="T16" t="n">
-        <v>4.529283099868214</v>
+        <v>4.529283099868212</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05782063531746664</v>
+        <v>0.05782063531746662</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>24.20200366374891</v>
       </c>
       <c r="I17" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110514</v>
       </c>
       <c r="J17" t="n">
         <v>200.5726652953605</v>
@@ -32242,25 +32242,25 @@
         <v>372.9288605557973</v>
       </c>
       <c r="M17" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669843</v>
       </c>
       <c r="N17" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367269</v>
       </c>
       <c r="O17" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354059</v>
       </c>
       <c r="P17" t="n">
         <v>339.8294523961113</v>
       </c>
       <c r="Q17" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046787</v>
       </c>
       <c r="R17" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667734</v>
       </c>
       <c r="S17" t="n">
-        <v>53.85115669353632</v>
+        <v>53.8511566935363</v>
       </c>
       <c r="T17" t="n">
         <v>10.34485741858278</v>
@@ -32303,40 +32303,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300825</v>
       </c>
       <c r="H18" t="n">
-        <v>12.21160908351061</v>
+        <v>12.2116090835106</v>
       </c>
       <c r="I18" t="n">
-        <v>43.53366544303282</v>
+        <v>43.5336654430328</v>
       </c>
       <c r="J18" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896012</v>
       </c>
       <c r="K18" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727565</v>
       </c>
       <c r="L18" t="n">
         <v>274.5393767843744</v>
       </c>
       <c r="M18" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215292</v>
       </c>
       <c r="N18" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256563</v>
       </c>
       <c r="O18" t="n">
         <v>300.8370381258854</v>
       </c>
       <c r="P18" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578041</v>
       </c>
       <c r="Q18" t="n">
         <v>161.4017578412773</v>
       </c>
       <c r="R18" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395829</v>
       </c>
       <c r="S18" t="n">
         <v>23.48599657977628</v>
@@ -32345,7 +32345,7 @@
         <v>5.096488986260781</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031749</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,22 +32385,22 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H19" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747054</v>
       </c>
       <c r="I19" t="n">
-        <v>31.87844360502991</v>
+        <v>31.8784436050299</v>
       </c>
       <c r="J19" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398956</v>
       </c>
       <c r="K19" t="n">
         <v>123.1579532262037</v>
       </c>
       <c r="L19" t="n">
-        <v>157.5997783303081</v>
+        <v>157.599778330308</v>
       </c>
       <c r="M19" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298459</v>
       </c>
       <c r="N19" t="n">
         <v>162.2157923831525</v>
@@ -32412,16 +32412,16 @@
         <v>128.2076220439291</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486407</v>
       </c>
       <c r="R19" t="n">
         <v>47.66347704669825</v>
       </c>
       <c r="S19" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393055</v>
       </c>
       <c r="T19" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868212</v>
       </c>
       <c r="U19" t="n">
         <v>0.05782063531746662</v>
@@ -32467,7 +32467,7 @@
         <v>24.20200366374891</v>
       </c>
       <c r="I20" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110514</v>
       </c>
       <c r="J20" t="n">
         <v>200.5726652953605</v>
@@ -32479,25 +32479,25 @@
         <v>372.9288605557973</v>
       </c>
       <c r="M20" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669843</v>
       </c>
       <c r="N20" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367269</v>
       </c>
       <c r="O20" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354059</v>
       </c>
       <c r="P20" t="n">
         <v>339.8294523961113</v>
       </c>
       <c r="Q20" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046787</v>
       </c>
       <c r="R20" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667734</v>
       </c>
       <c r="S20" t="n">
-        <v>53.85115669353632</v>
+        <v>53.8511566935363</v>
       </c>
       <c r="T20" t="n">
         <v>10.34485741858278</v>
@@ -32540,40 +32540,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300825</v>
       </c>
       <c r="H21" t="n">
-        <v>12.21160908351061</v>
+        <v>12.2116090835106</v>
       </c>
       <c r="I21" t="n">
-        <v>43.53366544303282</v>
+        <v>43.5336654430328</v>
       </c>
       <c r="J21" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896012</v>
       </c>
       <c r="K21" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727565</v>
       </c>
       <c r="L21" t="n">
         <v>274.5393767843744</v>
       </c>
       <c r="M21" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215292</v>
       </c>
       <c r="N21" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256563</v>
       </c>
       <c r="O21" t="n">
         <v>300.8370381258854</v>
       </c>
       <c r="P21" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578041</v>
       </c>
       <c r="Q21" t="n">
         <v>161.4017578412773</v>
       </c>
       <c r="R21" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395829</v>
       </c>
       <c r="S21" t="n">
         <v>23.48599657977628</v>
@@ -32582,7 +32582,7 @@
         <v>5.096488986260781</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031749</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,22 +32622,22 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H22" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747054</v>
       </c>
       <c r="I22" t="n">
-        <v>31.87844360502991</v>
+        <v>31.8784436050299</v>
       </c>
       <c r="J22" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398956</v>
       </c>
       <c r="K22" t="n">
         <v>123.1579532262037</v>
       </c>
       <c r="L22" t="n">
-        <v>157.5997783303081</v>
+        <v>157.599778330308</v>
       </c>
       <c r="M22" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298459</v>
       </c>
       <c r="N22" t="n">
         <v>162.2157923831525</v>
@@ -32649,16 +32649,16 @@
         <v>128.2076220439291</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486407</v>
       </c>
       <c r="R22" t="n">
         <v>47.66347704669825</v>
       </c>
       <c r="S22" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393055</v>
       </c>
       <c r="T22" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868212</v>
       </c>
       <c r="U22" t="n">
         <v>0.05782063531746662</v>
@@ -34123,34 +34123,34 @@
         <v>2.363188445135985</v>
       </c>
       <c r="H41" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I41" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J41" t="n">
         <v>200.5726652953605</v>
       </c>
       <c r="K41" t="n">
-        <v>300.6064321779668</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L41" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M41" t="n">
         <v>414.9552130669844</v>
       </c>
       <c r="N41" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O41" t="n">
         <v>398.1706671354061</v>
       </c>
       <c r="P41" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R41" t="n">
         <v>148.4466361667735</v>
@@ -34214,7 +34214,7 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L42" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M42" t="n">
         <v>320.3745035215293</v>
@@ -34223,7 +34223,7 @@
         <v>328.8538633256564</v>
       </c>
       <c r="O42" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P42" t="n">
         <v>241.4482453578042</v>
@@ -34232,16 +34232,16 @@
         <v>161.4017578412773</v>
       </c>
       <c r="R42" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S42" t="n">
-        <v>23.48599657977628</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T42" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,16 +34281,16 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H43" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I43" t="n">
         <v>31.87844360502991</v>
       </c>
       <c r="J43" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K43" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L43" t="n">
         <v>157.5997783303081</v>
@@ -34299,28 +34299,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N43" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O43" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P43" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R43" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S43" t="n">
         <v>18.47369298393056</v>
       </c>
       <c r="T43" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,10 +35021,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>143.5786972789634</v>
+        <v>330.7994618109762</v>
       </c>
       <c r="L12" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045003</v>
       </c>
       <c r="M12" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N12" t="n">
-        <v>197.5121512423231</v>
+        <v>499.8448460771128</v>
       </c>
       <c r="O12" t="n">
         <v>552.1031129581706</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591809</v>
+        <v>2.00577545359171</v>
       </c>
       <c r="K13" t="n">
-        <v>121.3082368265959</v>
+        <v>121.3082368265958</v>
       </c>
       <c r="L13" t="n">
-        <v>205.6095790168992</v>
+        <v>205.6095790168991</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179616</v>
+        <v>226.1705215179615</v>
       </c>
       <c r="N13" t="n">
         <v>226.7677401886561</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929763</v>
       </c>
       <c r="P13" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944472</v>
+        <v>23.02204415944462</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>188.623375940748</v>
       </c>
       <c r="K14" t="n">
-        <v>404.6619937041511</v>
+        <v>404.661993704151</v>
       </c>
       <c r="L14" t="n">
         <v>554.8236601362605</v>
       </c>
       <c r="M14" t="n">
-        <v>634.1225133325441</v>
+        <v>634.122513332544</v>
       </c>
       <c r="N14" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521202</v>
       </c>
       <c r="O14" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764646</v>
       </c>
       <c r="P14" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123244</v>
       </c>
       <c r="Q14" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901339</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>115.2773810722115</v>
       </c>
       <c r="K15" t="n">
-        <v>153.7897823022123</v>
+        <v>330.7994618109761</v>
       </c>
       <c r="L15" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M15" t="n">
-        <v>643.9455333495109</v>
+        <v>643.9455333495108</v>
       </c>
       <c r="N15" t="n">
-        <v>676.8545255858767</v>
+        <v>197.512151242323</v>
       </c>
       <c r="O15" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814409</v>
       </c>
       <c r="P15" t="n">
-        <v>425.9366065834111</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.41998375525583</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591824</v>
+        <v>2.005775453591685</v>
       </c>
       <c r="K16" t="n">
-        <v>121.3082368265959</v>
+        <v>121.3082368265958</v>
       </c>
       <c r="L16" t="n">
-        <v>205.6095790168992</v>
+        <v>205.6095790168991</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179616</v>
+        <v>226.1705215179614</v>
       </c>
       <c r="N16" t="n">
-        <v>226.7677401886562</v>
+        <v>226.767740188656</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929765</v>
+        <v>194.8374429929763</v>
       </c>
       <c r="P16" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944473</v>
+        <v>23.02204415944458</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325441</v>
+        <v>634.122513332544</v>
       </c>
       <c r="N17" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O17" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764646</v>
       </c>
       <c r="P17" t="n">
         <v>430.3951648123244</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901339</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>66.33422479839757</v>
+        <v>330.7994618109761</v>
       </c>
       <c r="L18" t="n">
         <v>506.8253423079594</v>
       </c>
       <c r="M18" t="n">
-        <v>643.9455333495109</v>
+        <v>575.4378828808418</v>
       </c>
       <c r="N18" t="n">
-        <v>676.8545255858767</v>
+        <v>197.512151242323</v>
       </c>
       <c r="O18" t="n">
-        <v>552.1031129581705</v>
+        <v>552.1031129581704</v>
       </c>
       <c r="P18" t="n">
-        <v>142.5518187837667</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.4199837552558</v>
+        <v>21.41998375525577</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316143</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36048,19 +36048,19 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M19" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O19" t="n">
         <v>256.228937352546</v>
       </c>
       <c r="P19" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901434</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,19 +36127,19 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M20" t="n">
-        <v>634.1225133325441</v>
+        <v>634.122513332544</v>
       </c>
       <c r="N20" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521202</v>
       </c>
       <c r="O20" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764646</v>
       </c>
       <c r="P20" t="n">
         <v>430.3951648123244</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901339</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>66.33422479839757</v>
+        <v>330.7994618109761</v>
       </c>
       <c r="L21" t="n">
-        <v>506.8253423079594</v>
+        <v>135.9849970045002</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495109</v>
+        <v>466.9358538407474</v>
       </c>
       <c r="N21" t="n">
-        <v>593.2193923628262</v>
+        <v>676.8545255858766</v>
       </c>
       <c r="O21" t="n">
-        <v>552.1031129581705</v>
+        <v>552.1031129581704</v>
       </c>
       <c r="P21" t="n">
-        <v>107.4738379434739</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.4199837552558</v>
+        <v>21.41998375525577</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
@@ -36285,10 +36285,10 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M22" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N22" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O22" t="n">
         <v>256.228937352546</v>
@@ -36297,7 +36297,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901431</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K24" t="n">
-        <v>330.7994618109761</v>
+        <v>66.33422479839757</v>
       </c>
       <c r="L24" t="n">
-        <v>506.8253423079594</v>
+        <v>360.3552164591226</v>
       </c>
       <c r="M24" t="n">
-        <v>643.9455333495109</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N24" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O24" t="n">
-        <v>158.240793681441</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P24" t="n">
-        <v>271.9489010479178</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.4199837552558</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316142</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36531,10 +36531,10 @@
         <v>256.228937352546</v>
       </c>
       <c r="P25" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901431</v>
+        <v>84.41353851901432</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>330.7994618109761</v>
+        <v>101.4122056386904</v>
       </c>
       <c r="L27" t="n">
         <v>506.8253423079594</v>
@@ -36686,7 +36686,7 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O27" t="n">
-        <v>322.7158567858849</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P27" t="n">
         <v>107.4738379434739</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K30" t="n">
         <v>66.33422479839757</v>
       </c>
       <c r="L30" t="n">
-        <v>506.8253423079594</v>
+        <v>135.9849970045003</v>
       </c>
       <c r="M30" t="n">
         <v>643.9455333495109</v>
@@ -36923,10 +36923,10 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O30" t="n">
-        <v>552.1031129581705</v>
+        <v>520.8455563986419</v>
       </c>
       <c r="P30" t="n">
-        <v>142.5518187837667</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q30" t="n">
         <v>21.4199837552558</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316134</v>
       </c>
       <c r="K31" t="n">
-        <v>182.6997311861655</v>
+        <v>182.6997311861654</v>
       </c>
       <c r="L31" t="n">
         <v>267.0010733764688</v>
       </c>
       <c r="M31" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N31" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O31" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525459</v>
       </c>
       <c r="P31" t="n">
         <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901431</v>
+        <v>84.41353851901425</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K33" t="n">
         <v>66.33422479839757</v>
@@ -37157,13 +37157,13 @@
         <v>643.9455333495109</v>
       </c>
       <c r="N33" t="n">
-        <v>393.4697377862325</v>
+        <v>593.2193923628262</v>
       </c>
       <c r="O33" t="n">
         <v>552.1031129581705</v>
       </c>
       <c r="P33" t="n">
-        <v>425.936606583411</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q33" t="n">
         <v>21.4199837552558</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098757</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L34" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M34" t="n">
         <v>293.6646586253573</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684048</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>554.8236601362605</v>
       </c>
       <c r="M35" t="n">
-        <v>540.7242466073211</v>
+        <v>540.7242466073193</v>
       </c>
       <c r="N35" t="n">
         <v>629.6034830521203</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>26.24051984186523</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>330.7994618109761</v>
@@ -37391,13 +37391,13 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M36" t="n">
-        <v>178.240469599511</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>676.8545255858767</v>
+        <v>631.2523009544714</v>
       </c>
       <c r="O36" t="n">
-        <v>552.1031129581705</v>
+        <v>158.240793681441</v>
       </c>
       <c r="P36" t="n">
         <v>107.4738379434739</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.4999125609875</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K37" t="n">
         <v>188.8023739339916</v>
@@ -37470,10 +37470,10 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M37" t="n">
-        <v>293.6646586253572</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N37" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O37" t="n">
         <v>262.3315801003721</v>
@@ -37482,7 +37482,7 @@
         <v>213.4000938424933</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684041</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>634.1225133325441</v>
       </c>
       <c r="N38" t="n">
-        <v>536.2052163268984</v>
+        <v>536.2052163268955</v>
       </c>
       <c r="O38" t="n">
         <v>548.8726369764647</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>66.33422479839757</v>
+        <v>176.8117562754828</v>
       </c>
       <c r="L39" t="n">
         <v>506.8253423079594</v>
@@ -37634,10 +37634,10 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O39" t="n">
-        <v>552.1031129581705</v>
+        <v>158.240793681441</v>
       </c>
       <c r="P39" t="n">
-        <v>142.5518187837671</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q39" t="n">
         <v>21.4199837552558</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.2251092155259</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K41" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L41" t="n">
         <v>554.8236601362605</v>
@@ -37795,10 +37795,10 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P41" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q41" t="n">
-        <v>245.207066990134</v>
+        <v>151.8088002649096</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K42" t="n">
-        <v>330.7994618109761</v>
+        <v>251.9641781830516</v>
       </c>
       <c r="L42" t="n">
-        <v>506.8253423079594</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M42" t="n">
-        <v>204.4809894413762</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N42" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O42" t="n">
-        <v>552.1031129581705</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P42" t="n">
         <v>107.4738379434739</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339916</v>
@@ -37950,13 +37950,13 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O43" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P43" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.623375940748</v>
+        <v>95.2251092155232</v>
       </c>
       <c r="K44" t="n">
         <v>404.661993704151</v>
@@ -38026,7 +38026,7 @@
         <v>634.1225133325441</v>
       </c>
       <c r="N44" t="n">
-        <v>536.2052163268984</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O44" t="n">
         <v>548.8726369764647</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>66.33422479839757</v>
+        <v>262.291811342307</v>
       </c>
       <c r="L45" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M45" t="n">
-        <v>521.3238031174767</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O45" t="n">
         <v>552.1031129581705</v>
@@ -38114,7 +38114,7 @@
         <v>425.936606583411</v>
       </c>
       <c r="Q45" t="n">
-        <v>231.4972714911049</v>
+        <v>21.4199837552558</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098751</v>
+        <v>69.49991256098758</v>
       </c>
       <c r="K46" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L46" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M46" t="n">
         <v>293.6646586253573</v>
       </c>
       <c r="N46" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P46" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684042</v>
+        <v>90.51618126684049</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
